--- a/data/trans_camb/P33A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P33A-Provincia-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-8.864306692727098</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>6.642171639019434</v>
+        <v>6.642171639019445</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-8.666617135926014</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-15.48349144082845</v>
+        <v>-15.30516410261293</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.869516278832712</v>
+        <v>1.817785337886803</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.8371895866765</v>
+        <v>-16.8066977427922</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.974294084149493</v>
+        <v>8.877367197123432</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-13.89102836338568</v>
+        <v>-14.1578726325545</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.857574857294242</v>
+        <v>6.696041095243671</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.085222971156229</v>
+        <v>-2.246165433489192</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.80114321298329</v>
+        <v>11.76965608288295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.3312318403999931</v>
+        <v>-1.395417939140483</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.93317860216063</v>
+        <v>21.74741180894134</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-3.378688232629591</v>
+        <v>-3.77419196449851</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.55231593303122</v>
+        <v>14.74111358401465</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.1029616486388376</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.07715086652593844</v>
+        <v>0.07715086652593857</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.1204456254941442</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1757752528550652</v>
+        <v>-0.1720564310030474</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.02130840315200519</v>
+        <v>0.02056524240017063</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2229122341737943</v>
+        <v>-0.2228573521082047</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.115136411565288</v>
+        <v>0.1163119211434224</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1707876463870655</v>
+        <v>-0.1752158794724554</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08335987633959556</v>
+        <v>0.08152196432614786</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.02565669721662625</v>
+        <v>-0.02590963574450318</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1453514267097939</v>
+        <v>0.1433721006215953</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.00570564764354701</v>
+        <v>-0.02190665028754707</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3160620153475209</v>
+        <v>0.3256030066233964</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.04383358169423981</v>
+        <v>-0.04861229997290206</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1907212439605939</v>
+        <v>0.1934548266938599</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.487814465961469</v>
+        <v>4.66343461138561</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.491344400647839</v>
+        <v>-6.191501448997568</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.457188262399924</v>
+        <v>7.452141975950918</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.556383886788661</v>
+        <v>-1.934026833396678</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.370382377908051</v>
+        <v>7.197678861993803</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.342598064029465</v>
+        <v>-2.959941399857255</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.01464158855162</v>
+        <v>12.95721167668649</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.495320504430484</v>
+        <v>4.518491923820971</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.61652031375895</v>
+        <v>18.24993032326989</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.924544324743652</v>
+        <v>9.148044200488012</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.43474922101525</v>
+        <v>14.08432375366503</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.2422529612247</v>
+        <v>4.929262456454733</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.05163532077810369</v>
+        <v>0.05497469987411815</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.0758021851672048</v>
+        <v>-0.07165503221813248</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1032546753400187</v>
+        <v>0.1028948852621658</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02228876970247269</v>
+        <v>-0.02631304832239429</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09274455825547168</v>
+        <v>0.09239519318754853</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02954577938015416</v>
+        <v>-0.037262746382653</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1614657287092496</v>
+        <v>0.1611164502736308</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.05581204211190079</v>
+        <v>0.05573763361380154</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2874683889769796</v>
+        <v>0.2777149009485586</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1373025141200181</v>
+        <v>0.1408038030386806</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1967583627669428</v>
+        <v>0.1903041355582799</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0704716546526848</v>
+        <v>0.06660724361575378</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>5.268490475875964</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-2.938892276677241</v>
+        <v>-2.938892276677252</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>4.181325441965889</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6833886053903335</v>
+        <v>0.6251447174511042</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.549107990872246</v>
+        <v>-8.307135424992891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.008530027087062</v>
+        <v>-1.746209765999744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2334316813817595</v>
+        <v>-0.1970691524771349</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5439490437108869</v>
+        <v>0.6905528146834385</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.595681343127417</v>
+        <v>-2.18651002911357</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.14762547548769</v>
+        <v>10.3245638803516</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.73392832310949</v>
+        <v>2.732628143462159</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.03967743578058</v>
+        <v>11.22867456938124</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.05190306415252</v>
+        <v>11.52836423109578</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.687913480268465</v>
+        <v>8.956677099869756</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.490831595559673</v>
+        <v>5.662359113713357</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>0.06137233392505287</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.03423498229708878</v>
+        <v>-0.03423498229708891</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.05574030838501426</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.008391603994704228</v>
+        <v>0.006882382485320831</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09673177038881775</v>
+        <v>-0.09435547495475656</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.02510665285037435</v>
+        <v>-0.02352075457011885</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.003723702742155949</v>
+        <v>-0.002581605756982455</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.007163010050234668</v>
+        <v>0.008677638964284829</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03139484849441444</v>
+        <v>-0.02664589056389725</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1230621489584249</v>
+        <v>0.1258140191142154</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.0334651478042412</v>
+        <v>0.03302919349372119</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1549724444600727</v>
+        <v>0.1588814726734101</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1670158734221015</v>
+        <v>0.1592627740631998</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1126596081449868</v>
+        <v>0.1165465894443695</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0711376141744563</v>
+        <v>0.07186614579263144</v>
       </c>
     </row>
     <row r="22">
@@ -1092,19 +1092,19 @@
         <v>1.899698495551161</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>2.588751752348362</v>
+        <v>2.588751752348339</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>5.192186694772527</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11.60181299520142</v>
+        <v>11.60181299520141</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>3.596838160988758</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.976346836725589</v>
+        <v>6.976346836725567</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.245777005943163</v>
+        <v>-4.031046335801258</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.409488902909674</v>
+        <v>-4.179650358635378</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.230433227477407</v>
+        <v>-2.015366012130602</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.335145920812753</v>
+        <v>4.435184548621176</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.513901428940942</v>
+        <v>-0.9965042313084524</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.459563735223437</v>
+        <v>2.119858004285247</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.968411651489745</v>
+        <v>8.21795249944325</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.622578792023223</v>
+        <v>9.033081389597504</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.90492798237187</v>
+        <v>12.48691185401103</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.28886241241032</v>
+        <v>18.05376088351434</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.106380062762877</v>
+        <v>8.158733918206638</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.63319558983798</v>
+        <v>11.48322227682133</v>
       </c>
     </row>
     <row r="25">
@@ -1170,19 +1170,19 @@
         <v>0.0243843397603987</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.0332289584017781</v>
+        <v>0.03322895840177782</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.08781040368496389</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.196210179347322</v>
+        <v>0.1962101793473219</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05262759464604787</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1020753053099573</v>
+        <v>0.1020753053099569</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05222465430120189</v>
+        <v>-0.0496139377753118</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05321502322532469</v>
+        <v>-0.05111093737878841</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03513342663377138</v>
+        <v>-0.03123208292664977</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08895371673668151</v>
+        <v>0.07133196954250115</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02138017148584035</v>
+        <v>-0.01428325338973525</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03574619939294031</v>
+        <v>0.02891312545147099</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1075529393390699</v>
+        <v>0.1106664948787681</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1271381760032659</v>
+        <v>0.1209531977440051</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2153223770779122</v>
+        <v>0.2223888998489218</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3361875760651265</v>
+        <v>0.3320776433480045</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1228186439441211</v>
+        <v>0.1240301707417301</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1782603552720139</v>
+        <v>0.1749117253039842</v>
       </c>
     </row>
     <row r="28">
@@ -1252,7 +1252,7 @@
         <v>-11.18572526132364</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>3.75125894222077</v>
+        <v>3.751258942220781</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>7.347607778205322</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-19.2771121353055</v>
+        <v>-18.38380113692828</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.197539078387943</v>
+        <v>-1.285298720026348</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.4988260717264015</v>
+        <v>-1.287878631772499</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10.04343623257051</v>
+        <v>10.54905755970883</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.786934514929885</v>
+        <v>-7.345693832125599</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.085842537240937</v>
+        <v>6.348593811852998</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-4.217795663699454</v>
+        <v>-4.235727287252256</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.312878681228581</v>
+        <v>9.28178907780562</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15.12566986115578</v>
+        <v>16.09026317390103</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>25.37077097719407</v>
+        <v>24.75778792928377</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.527681411265456</v>
+        <v>3.931740116439153</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>15.08314639258399</v>
+        <v>15.86862874550892</v>
       </c>
     </row>
     <row r="31">
@@ -1330,7 +1330,7 @@
         <v>-0.1264547158157084</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.04240801310665566</v>
+        <v>0.04240801310665578</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.1052481476535296</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2089675375141234</v>
+        <v>-0.2037735443609111</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.01277523316764097</v>
+        <v>-0.01372049407715886</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.007116686903903931</v>
+        <v>-0.01683853811282827</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1276485600162192</v>
+        <v>0.1395092618469078</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.08339129168199734</v>
+        <v>-0.0913917966234053</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07452072724876257</v>
+        <v>0.07777561873695056</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.04929882245939749</v>
+        <v>-0.04951063330173453</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1128189680882778</v>
+        <v>0.1105858478330296</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2284939208250433</v>
+        <v>0.2484494730535268</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3999922116325568</v>
+        <v>0.3920979828115617</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.04587238059448123</v>
+        <v>0.05084730014862623</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2010824574643292</v>
+        <v>0.2123046145321265</v>
       </c>
     </row>
     <row r="34">
@@ -1412,19 +1412,19 @@
         <v>0.9229368619496969</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-3.151918459268344</v>
+        <v>-3.151918459268355</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>-0.9218929429213096</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>-2.349545411172549</v>
+        <v>-2.349545411172582</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-0.02163576144349477</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-2.647952841368517</v>
+        <v>-2.647952841368506</v>
       </c>
     </row>
     <row r="35">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.240894408984916</v>
+        <v>-5.788386377806013</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-9.047109848503855</v>
+        <v>-9.472388841288462</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.03414494980249</v>
+        <v>-8.610993451975261</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-8.985244053511334</v>
+        <v>-9.226794109037865</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.058721006286834</v>
+        <v>-5.177963958906977</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-7.000590527187797</v>
+        <v>-7.094943709772656</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.560720202518216</v>
+        <v>6.744736494360325</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.783771824544995</v>
+        <v>3.296168863888361</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.914976100193092</v>
+        <v>6.534914961285235</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.683221537031228</v>
+        <v>4.200095817188199</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.175218403909706</v>
+        <v>5.008278603795077</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.088220393322289</v>
+        <v>1.7650880442416</v>
       </c>
     </row>
     <row r="37">
@@ -1490,19 +1490,19 @@
         <v>0.01099043757000398</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.03753340502529402</v>
+        <v>-0.03753340502529415</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.01241732921081735</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>-0.03164692721678104</v>
+        <v>-0.03164692721678149</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.0002736461112345034</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.03349094043513383</v>
+        <v>-0.03349094043513368</v>
       </c>
     </row>
     <row r="38">
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.06026713602450019</v>
+        <v>-0.06629254331853283</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1029016090657365</v>
+        <v>-0.1089347635015381</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1027000652344823</v>
+        <v>-0.1120975872274474</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1146764066657431</v>
+        <v>-0.1188066186478225</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.06191232873494147</v>
+        <v>-0.06407848094008008</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.085118513024823</v>
+        <v>-0.08723082669567374</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.09287679971583518</v>
+        <v>0.08310430105477982</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.0359624988241617</v>
+        <v>0.0395910730598433</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1115499179093539</v>
+        <v>0.09151861545716304</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.0681061645001733</v>
+        <v>0.05960684734144587</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.06706966921453399</v>
+        <v>0.06574832497904269</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0278787946094113</v>
+        <v>0.02287191710318044</v>
       </c>
     </row>
     <row r="40">
@@ -1572,7 +1572,7 @@
         <v>-2.629329806877279</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-3.272164309887216</v>
+        <v>-3.272164309887227</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>-1.49241684242698</v>
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.992102509483883</v>
+        <v>-6.889429800847704</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.604538014620665</v>
+        <v>-7.800944176271843</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-6.013877463695297</v>
+        <v>-5.963202293488988</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-8.171158979862152</v>
+        <v>-7.733364139804173</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-5.38959121541499</v>
+        <v>-5.402896921236734</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-6.649680770128243</v>
+        <v>-6.545934948998072</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.464706368281705</v>
+        <v>1.310214742004901</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.7000667124854193</v>
+        <v>0.6829796115595759</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.18618497370609</v>
+        <v>3.926531178557893</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.226624102599352</v>
+        <v>1.475702827076741</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.069708148819641</v>
+        <v>0.9398521638019707</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.2460038518668015</v>
+        <v>-0.410728911486016</v>
       </c>
     </row>
     <row r="43">
@@ -1650,7 +1650,7 @@
         <v>-0.03085896773782211</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.038403555387974</v>
+        <v>-0.03840355538797413</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>-0.02001667914403247</v>
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.08047818467276092</v>
+        <v>-0.07993352510593184</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.0864619084489396</v>
+        <v>-0.08971858302543476</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.07852810622616055</v>
+        <v>-0.0781475910329819</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1049295356934162</v>
+        <v>-0.09970818257558477</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.06665600217093051</v>
+        <v>-0.06687871369614834</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.08184538644384028</v>
+        <v>-0.0803739730957171</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.01735193860132337</v>
+        <v>0.01598630527335629</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.009532279046889091</v>
+        <v>0.008298137405738933</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.0439913922678541</v>
+        <v>0.05512018389289532</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.01695555733800572</v>
+        <v>0.02095711444809156</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.01343666730611103</v>
+        <v>0.01143620236785014</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.003087268127327901</v>
+        <v>-0.005263093233423291</v>
       </c>
     </row>
     <row r="46">
@@ -1738,13 +1738,13 @@
         <v>-8.378805328989969</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>-14.25251057942146</v>
+        <v>-14.25251057942145</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>-6.03794977480494</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-11.14113127212004</v>
+        <v>-11.14113127212003</v>
       </c>
     </row>
     <row r="47">
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-6.972097141618337</v>
+        <v>-7.0022274549496</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-11.57988679804329</v>
+        <v>-11.53058773187035</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-12.69303057080735</v>
+        <v>-13.14460191480545</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-18.11358579590218</v>
+        <v>-18.26289136733038</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-8.634014067524884</v>
+        <v>-8.824028214515991</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-14.18058279521127</v>
+        <v>-14.01252755855055</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.5811882259593756</v>
+        <v>0.3180568753039316</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-3.999915769957115</v>
+        <v>-3.888154654620918</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-4.136825636487944</v>
+        <v>-4.416832212276955</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-10.25712237772583</v>
+        <v>-10.11054016535684</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-3.007095644835229</v>
+        <v>-3.083959978574014</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-8.468566838744819</v>
+        <v>-8.269485906559531</v>
       </c>
     </row>
     <row r="49">
@@ -1816,13 +1816,13 @@
         <v>-0.1019757221233331</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>-0.1734626836809623</v>
+        <v>-0.1734626836809621</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>-0.07134347689317964</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.1316418769816705</v>
+        <v>-0.1316418769816704</v>
       </c>
     </row>
     <row r="50">
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.0798788075498485</v>
+        <v>-0.07933657550879922</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1310398553627591</v>
+        <v>-0.1315927925537919</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1506844333388875</v>
+        <v>-0.1552422946970193</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2176270798056461</v>
+        <v>-0.2164130785990019</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1008009253423475</v>
+        <v>-0.1036789297318308</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1639506700215524</v>
+        <v>-0.1642920826318975</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.006708205207888583</v>
+        <v>0.003392925614114426</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.04754083455234421</v>
+        <v>-0.0465364101388183</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.05262311635493594</v>
+        <v>-0.05397706589039337</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.1282460523386881</v>
+        <v>-0.1256342977620022</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.03607061945088381</v>
+        <v>-0.03699377234230933</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.1020492070890717</v>
+        <v>-0.09973672819739351</v>
       </c>
     </row>
     <row r="52">
@@ -1892,7 +1892,7 @@
         <v>-0.686028857002785</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>-1.949621732551032</v>
+        <v>-1.949621732551021</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>0.3351680449564132</v>
@@ -1904,7 +1904,7 @@
         <v>-0.1746758939779824</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-0.6776251861793869</v>
+        <v>-0.677625186179398</v>
       </c>
     </row>
     <row r="53">
@@ -1915,22 +1915,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-2.568546319285719</v>
+        <v>-2.442238347910718</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-3.689044401797864</v>
+        <v>-3.846873354932304</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.926282749982601</v>
+        <v>-1.973254961139206</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-1.406461201630292</v>
+        <v>-1.439948586315146</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.586908946064249</v>
+        <v>-1.593484151200894</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-1.959817666769427</v>
+        <v>-2.012644493519215</v>
       </c>
     </row>
     <row r="54">
@@ -1941,22 +1941,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.9993623143487624</v>
+        <v>1.047855985942995</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.04653818638495741</v>
+        <v>-0.1064686687776797</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2.390329684000247</v>
+        <v>2.447127174853367</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>2.75686250227866</v>
+        <v>2.667625640805111</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.351769714857157</v>
+        <v>1.395571595092337</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>0.6369887226985947</v>
+        <v>0.6232658342233121</v>
       </c>
     </row>
     <row r="55">
@@ -1970,7 +1970,7 @@
         <v>-0.008083484526747396</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>-0.02297241136027422</v>
+        <v>-0.02297241136027409</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>0.004570619270120213</v>
@@ -1982,7 +1982,7 @@
         <v>-0.002211333440408688</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.008578488995456459</v>
+        <v>-0.0085784889954566</v>
       </c>
     </row>
     <row r="56">
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.02991989311927876</v>
+        <v>-0.02833343061577163</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.04296524725304367</v>
+        <v>-0.04469309986301531</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.02609380250511132</v>
+        <v>-0.02646079150408985</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.01901505649082385</v>
+        <v>-0.01933078855814982</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.01999004792431251</v>
+        <v>-0.01994363401064777</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.0246756083608412</v>
+        <v>-0.0252585317019463</v>
       </c>
     </row>
     <row r="57">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.01193171462957452</v>
+        <v>0.01249298887498465</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.0005464754553782491</v>
+        <v>-0.001366269073010802</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.03290325361135612</v>
+        <v>0.03361815860567567</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.03852073230201708</v>
+        <v>0.0369740865385397</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.01731707887410386</v>
+        <v>0.01780859926767213</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.008129649690718818</v>
+        <v>0.007958778202494679</v>
       </c>
     </row>
     <row r="58">
